--- a/Excel2Json/Test/chapter_story.xlsx
+++ b/Excel2Json/Test/chapter_story.xlsx
@@ -55,7 +55,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+长度6个字以内</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,11 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="107">
   <si>
     <t>关卡2</t>
   </si>
@@ -337,10 +359,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -381,10 +399,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>vector&lt;float&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>飞船起点坐标</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -449,10 +463,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>map&lt;int,int&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>90001:1000|11109:10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -480,6 +490,48 @@
   </si>
   <si>
     <t>stage_cname_109</t>
+  </si>
+  <si>
+    <t>章节介绍标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节介绍文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_des</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47101_title</t>
+  </si>
+  <si>
+    <t>47101_title_des</t>
+  </si>
+  <si>
+    <t>id[20]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;float&gt;;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;int,int&gt;;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -986,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="W5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1001,938 +1053,968 @@
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="2" customWidth="1"/>
-    <col min="8" max="10" width="14.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13" style="13" customWidth="1"/>
-    <col min="13" max="24" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="14.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="2" customWidth="1"/>
+    <col min="10" max="13" width="18" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="13" customWidth="1"/>
+    <col min="15" max="26" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="I4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="N4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AB4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="4" t="s">
-        <v>42</v>
+      <c r="AO4" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>47101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="2">
         <v>4110108</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="2">
+      <c r="N5" s="12"/>
+      <c r="O5" s="2">
         <v>4110101</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>4110102</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>4110103</v>
       </c>
-      <c r="Y5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB5" s="1">
         <v>1</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AC5" s="1">
         <v>3</v>
       </c>
-      <c r="AB5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC5" s="1">
+      <c r="AD5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE5" s="1">
         <v>2</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AF5" s="1">
         <v>6</v>
       </c>
-      <c r="AE5" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH5" s="1">
         <v>3</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AI5" s="1">
         <v>9</v>
       </c>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>47102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>4110208</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="1">
+      <c r="N6" s="12"/>
+      <c r="O6" s="1">
         <v>4110201</v>
       </c>
-      <c r="N6" s="3">
+      <c r="P6" s="3">
         <v>4110202</v>
       </c>
-      <c r="O6" s="3">
+      <c r="Q6" s="3">
         <v>4110203</v>
       </c>
-      <c r="P6" s="3">
+      <c r="R6" s="3">
         <v>4110204</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="S6" s="3">
         <v>4110205</v>
       </c>
-      <c r="R6" s="3">
+      <c r="T6" s="3">
         <v>4110206</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="3">
         <v>4110207</v>
       </c>
-      <c r="T6" s="3">
+      <c r="V6" s="3">
         <v>4110208</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="W6" s="3"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z6" s="1">
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB6" s="1">
         <v>1</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AC6" s="1">
         <v>6</v>
       </c>
-      <c r="AB6" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE6" s="1">
         <v>2</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AF6" s="1">
         <v>12</v>
       </c>
-      <c r="AE6" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH6" s="1">
         <v>3</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AI6" s="1">
         <v>18</v>
       </c>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>47103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2">
         <v>100</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="Y7" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z7" s="1">
+      <c r="N7" s="12"/>
+      <c r="AA7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB7" s="1">
         <v>1</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AC7" s="1">
         <v>6</v>
       </c>
-      <c r="AB7" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC7" s="1">
+      <c r="AD7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE7" s="1">
         <v>2</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AF7" s="1">
         <v>12</v>
       </c>
-      <c r="AE7" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF7" s="1">
+      <c r="AG7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH7" s="1">
         <v>3</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AI7" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>47104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2">
         <v>100</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="Y8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z8" s="1">
+      <c r="N8" s="12"/>
+      <c r="AA8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" s="1">
         <v>1</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AC8" s="1">
         <v>6</v>
       </c>
-      <c r="AB8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC8" s="1">
+      <c r="AD8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE8" s="1">
         <v>2</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AF8" s="1">
         <v>12</v>
       </c>
-      <c r="AE8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF8" s="1">
+      <c r="AG8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH8" s="1">
         <v>3</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AI8" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>47105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2">
         <v>100</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="Y9" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z9" s="1">
+      <c r="N9" s="12"/>
+      <c r="AA9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB9" s="1">
         <v>1</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AC9" s="1">
         <v>6</v>
       </c>
-      <c r="AB9" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC9" s="1">
+      <c r="AD9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE9" s="1">
         <v>2</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AF9" s="1">
         <v>12</v>
       </c>
-      <c r="AE9" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH9" s="1">
         <v>3</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AI9" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>47106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2">
         <v>100</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="12"/>
-      <c r="Y10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z10" s="1">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="12"/>
+      <c r="AA10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB10" s="1">
         <v>1</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AC10" s="1">
         <v>6</v>
       </c>
-      <c r="AB10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC10" s="1">
+      <c r="AD10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE10" s="1">
         <v>2</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AF10" s="1">
         <v>12</v>
       </c>
-      <c r="AE10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF10" s="1">
+      <c r="AG10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH10" s="1">
         <v>3</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AI10" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>47107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2">
         <v>100</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="Y11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z11" s="1">
+      <c r="N11" s="12"/>
+      <c r="AA11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB11" s="1">
         <v>1</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AC11" s="1">
         <v>6</v>
       </c>
-      <c r="AB11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC11" s="1">
+      <c r="AD11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE11" s="1">
         <v>2</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AF11" s="1">
         <v>12</v>
       </c>
-      <c r="AE11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF11" s="1">
+      <c r="AG11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH11" s="1">
         <v>3</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AI11" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>47108</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2">
         <v>100</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="Y12" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z12" s="1">
+      <c r="N12" s="12"/>
+      <c r="AA12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB12" s="1">
         <v>1</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AC12" s="1">
         <v>6</v>
       </c>
-      <c r="AB12" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE12" s="1">
         <v>2</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AF12" s="1">
         <v>12</v>
       </c>
-      <c r="AE12" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF12" s="1">
+      <c r="AG12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH12" s="1">
         <v>3</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AI12" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>47109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2">
         <v>100</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="Y13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z13" s="1">
+      <c r="N13" s="12"/>
+      <c r="AA13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB13" s="1">
         <v>1</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AC13" s="1">
         <v>6</v>
       </c>
-      <c r="AB13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE13" s="1">
         <v>2</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AF13" s="1">
         <v>12</v>
       </c>
-      <c r="AE13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH13" s="1">
         <v>3</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AI13" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="L14" s="12"/>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="L15" s="12"/>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="L16" s="12"/>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L17" s="12"/>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L18" s="12"/>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L19" s="12"/>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L20" s="12"/>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N20" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
